--- a/result_data/2.1-results/ЧД 2025.12.13-14  нэгдсэн мэдээ (1).xlsx
+++ b/result_data/2.1-results/ЧД 2025.12.13-14  нэгдсэн мэдээ (1).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="884">
   <si>
     <t xml:space="preserve">ЧИНГЭЛТЭЙ ДҮҮРЭГ, ММО-ЫН C (5-6) АНГИЛЛЫН ХОЁРЫН ДАВААНЫ I ШАТНЫ ШАЛГАРУУЛАЛТЫН ДҮН МЭДЭЭ </t>
   </si>
@@ -28438,7 +28438,7 @@
   <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29684,7 +29684,7 @@
   <dimension ref="A1:CR13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29861,8 +29861,8 @@
       <c r="C4" s="454" t="n">
         <v>408</v>
       </c>
-      <c r="D4" s="454" t="s">
-        <v>308</v>
+      <c r="D4" s="454" t="n">
+        <v>231608</v>
       </c>
       <c r="E4" s="455" t="s">
         <v>606</v>
